--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="api choices" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'data per context'!$A$1:$M$115</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'data per context'!$A$1:$M$111</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I121">
+    <comment authorId="0" ref="I117">
       <text>
         <t xml:space="preserve">what does api do lol?
 	-Juan Casas</t>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="409">
   <si>
     <t>Mode</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Can be used on forms and lists.</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
   <si>
     <t>onChange</t>
@@ -985,6 +988,12 @@
 all server rules have access to current(c) and previous(p) </t>
   </si>
   <si>
+    <t>Client/Server</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
     <t>sys_button</t>
   </si>
   <si>
@@ -1068,9 +1077,6 @@
   <si>
     <t xml:space="preserve">sys_read server rule runs before or after the record is read (according to sys_when).
 </t>
-  </si>
-  <si>
-    <t>Buttons</t>
   </si>
   <si>
     <t>Buttons that display on the ui that run a script when they are clicked.
@@ -1594,7 +1600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1613,12 +1619,6 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1626,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1648,20 +1648,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -1671,6 +1662,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1898,7 +1892,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.25"/>
+    <col customWidth="1" min="1" max="1" width="15.5"/>
     <col customWidth="1" min="2" max="2" width="17.5"/>
     <col customWidth="1" min="3" max="3" width="21.13"/>
     <col customWidth="1" min="4" max="4" width="21.63"/>
@@ -1987,24 +1981,26 @@
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -2021,11 +2017,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2046,63 +2042,67 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2113,2231 +2113,2413 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5"/>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="5"/>
       <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5"/>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="5"/>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="5"/>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="5"/>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="L20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="5"/>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="5"/>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="5"/>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="5"/>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="J30" s="8"/>
       <c r="K30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="5"/>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="5"/>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="5"/>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="5"/>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J42" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" ht="20.25" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" ht="20.25" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" ht="20.25" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" ht="20.25" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="A49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="F50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="L50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="5"/>
       <c r="F52" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B53" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="5"/>
       <c r="F53" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J53" s="5"/>
       <c r="K53" s="2" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B54" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="K54" s="5"/>
       <c r="L54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="K55" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="L55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" s="5"/>
       <c r="L57" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="5"/>
       <c r="F59" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="5"/>
       <c r="I59" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H60" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="6" t="s">
-        <v>202</v>
+      <c r="K60" s="8"/>
+      <c r="L60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="5"/>
       <c r="L61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B62" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="2" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" ht="22.5" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="2" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="M63" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" ht="19.5" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K64" s="5"/>
       <c r="L64" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" ht="21.0" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" ht="23.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K65" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="L65" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" ht="23.25" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" ht="21.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="2" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
       <c r="M66" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" ht="21.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" ht="24.0" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
+      <c r="L67" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="M67" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" ht="24.0" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" ht="21.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" ht="21.75" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" ht="26.25" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" ht="26.25" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" ht="21.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="K70" s="5"/>
       <c r="L70" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" ht="21.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" ht="21.75" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" ht="20.25" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" ht="20.25" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" ht="21.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>248</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="74" ht="21.75" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="2" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J74" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="L74" s="5"/>
       <c r="M74" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H75" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="H75" s="5"/>
       <c r="I75" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="M75" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="A76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J76" s="5"/>
-      <c r="K76" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
     </row>
     <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="8"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
+      <c r="M77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J78" s="8"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
+      <c r="M78" s="4" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="2"/>
+      <c r="D79" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="H79" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J79" s="8"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="M79" s="4" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J80" s="5"/>
+      <c r="H80" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J80" s="8"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
+      <c r="M80" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="5"/>
       <c r="D81" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="5"/>
       <c r="H81" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="9"/>
+        <v>275</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J81" s="8"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="5"/>
       <c r="D82" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J82" s="9"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J82" s="8"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="M82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J83" s="9"/>
+      <c r="H83" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J83" s="8"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="M83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J84" s="9"/>
+      <c r="H84" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J84" s="8"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="M84" s="4"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="3" t="s">
-        <v>261</v>
-      </c>
+      <c r="A85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="J85" s="9"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="4"/>
+      <c r="M85" s="5"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="3" t="s">
-        <v>261</v>
-      </c>
+      <c r="A86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J86" s="9"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="4"/>
+      <c r="M86" s="5"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="3" t="s">
-        <v>261</v>
-      </c>
+      <c r="A87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J87" s="9"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="4"/>
+      <c r="M87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="3" t="s">
-        <v>261</v>
-      </c>
+      <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="J88" s="9"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="4"/>
+      <c r="M88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>280</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="I89" s="6"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" ht="20.25" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>199</v>
+        <v>262</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>282</v>
+        <v>8</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="2" t="s">
-        <v>283</v>
+      <c r="H90" s="5"/>
+      <c r="I90" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -4346,21 +4528,23 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D91" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="2" t="s">
-        <v>285</v>
+      <c r="H91" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -4369,21 +4553,23 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="2" t="s">
-        <v>287</v>
+      <c r="H92" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -4392,38 +4578,48 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>199</v>
+        <v>262</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+      <c r="H93" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" ht="20.25" customHeight="1">
-      <c r="A94" s="5"/>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B94" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="13" t="s">
-        <v>289</v>
+      <c r="H94" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -4431,22 +4627,24 @@
       <c r="M94" s="5"/>
     </row>
     <row r="95">
-      <c r="A95" s="5"/>
+      <c r="A95" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B95" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -4454,22 +4652,24 @@
       <c r="M95" s="5"/>
     </row>
     <row r="96">
-      <c r="A96" s="5"/>
+      <c r="A96" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B96" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="6" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -4477,22 +4677,24 @@
       <c r="M96" s="5"/>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
+      <c r="A97" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B97" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="6" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -4500,22 +4702,24 @@
       <c r="M97" s="5"/>
     </row>
     <row r="98">
-      <c r="A98" s="5"/>
+      <c r="A98" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B98" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -4523,22 +4727,24 @@
       <c r="M98" s="5"/>
     </row>
     <row r="99">
-      <c r="A99" s="5"/>
+      <c r="A99" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B99" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -4546,22 +4752,24 @@
       <c r="M99" s="5"/>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
+      <c r="A100" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B100" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="6" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -4569,22 +4777,24 @@
       <c r="M100" s="5"/>
     </row>
     <row r="101">
-      <c r="A101" s="5"/>
+      <c r="A101" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B101" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="6" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -4592,22 +4802,24 @@
       <c r="M101" s="5"/>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
+      <c r="A102" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B102" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="6" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -4615,91 +4827,105 @@
       <c r="M102" s="5"/>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="4" t="s">
-        <v>288</v>
+      <c r="A103" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="3" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="J103" s="5"/>
+      <c r="H103" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="J103" s="8"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
+      <c r="M103" s="4" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="5"/>
-      <c r="B104" s="4" t="s">
-        <v>288</v>
+      <c r="A104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="3" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
-      <c r="H104" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="J104" s="5"/>
+      <c r="H104" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J104" s="8"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
+      <c r="M104" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="5"/>
-      <c r="B105" s="4" t="s">
-        <v>288</v>
+      <c r="A105" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="3" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
-      <c r="H105" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J105" s="5"/>
+      <c r="H105" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J105" s="8"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
+      <c r="M105" s="4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="4" t="s">
-        <v>288</v>
+      <c r="A106" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="3" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="6" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -4708,403 +4934,385 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
-      <c r="H107" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J107" s="9"/>
+      <c r="H107" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="4" t="s">
-        <v>315</v>
-      </c>
+      <c r="M107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J108" s="9"/>
+      <c r="H108" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="4" t="s">
-        <v>317</v>
-      </c>
+      <c r="M108" s="5"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J109" s="9"/>
+      <c r="H109" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="M109" s="5"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
-      <c r="H110" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="J110" s="5"/>
+      <c r="H110" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J110" s="8"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-    </row>
-    <row r="111">
+      <c r="M110" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" ht="18.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
-      <c r="H111" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>322</v>
+      <c r="H111" s="5"/>
+      <c r="I111" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" ht="18.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>324</v>
+      <c r="H112" s="5"/>
+      <c r="I112" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" ht="21.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="H113" s="5"/>
       <c r="I113" s="6" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
+      <c r="M113" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J114" s="9"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" ht="18.75" customHeight="1">
+      <c r="M114" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" ht="19.5" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D115" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="4"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
-      <c r="I115" s="2" t="s">
-        <v>330</v>
+      <c r="I115" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-    </row>
-    <row r="116" ht="18.75" customHeight="1">
+      <c r="M115" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>288</v>
+        <v>173</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D116" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="2" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
     </row>
-    <row r="117" ht="21.75" customHeight="1">
+    <row r="117">
       <c r="A117" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D117" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="6" t="s">
-        <v>334</v>
+      <c r="H117" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="M117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D118" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="3" t="s">
-        <v>337</v>
+      <c r="H118" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="119" ht="19.5" customHeight="1">
+      <c r="M118" s="5"/>
+    </row>
+    <row r="119">
       <c r="A119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D119" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="H119" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I119" s="2"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="M119" s="5"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="H120" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I120" s="2"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>345</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="I121" s="2"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="A122" s="2"/>
       <c r="B122" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>347</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I122" s="2"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -5112,22 +5320,24 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D123" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I123" s="2"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -5135,64 +5345,74 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C124" s="5"/>
       <c r="D124" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I124" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
+      <c r="A125" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B125" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C125" s="5"/>
       <c r="D125" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I125" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>358</v>
+      </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B126" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I126" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -5200,23 +5420,23 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C127" s="5"/>
       <c r="D127" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="2" t="s">
-        <v>353</v>
+      <c r="H127" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -5225,23 +5445,23 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>355</v>
+        <v>362</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -5250,23 +5470,23 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>356</v>
+        <v>281</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -5275,23 +5495,23 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>358</v>
+        <v>279</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>365</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -5299,25 +5519,15 @@
       <c r="M130" s="5"/>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>351</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
-      <c r="H131" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>359</v>
-      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
@@ -5325,23 +5535,21 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="2" t="s">
-        <v>352</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
-      <c r="H132" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>361</v>
+      <c r="H132" s="2"/>
+      <c r="I132" s="11" t="s">
+        <v>367</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -5350,23 +5558,23 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C133" s="5"/>
+        <v>366</v>
+      </c>
+      <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>362</v>
+        <v>369</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -5375,23 +5583,23 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C134" s="5"/>
+        <v>366</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>363</v>
+        <v>298</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -5399,38 +5607,40 @@
       <c r="M134" s="5"/>
     </row>
     <row r="135">
-      <c r="A135" s="5"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="A135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
+      <c r="H135" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="2"/>
-      <c r="I136" s="14" t="s">
-        <v>365</v>
-      </c>
+      <c r="I136" s="11"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
@@ -5441,20 +5651,20 @@
         <v>13</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -5466,20 +5676,20 @@
         <v>13</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I138" s="14" t="s">
-        <v>369</v>
+        <v>298</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -5491,20 +5701,20 @@
         <v>13</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I139" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -5512,15 +5722,25 @@
       <c r="M139" s="5"/>
     </row>
     <row r="140">
-      <c r="A140" s="2"/>
-      <c r="B140" s="6"/>
+      <c r="A140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="14"/>
+      <c r="H140" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
@@ -5531,20 +5751,20 @@
         <v>13</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I141" s="14" t="s">
-        <v>373</v>
+        <v>279</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -5556,20 +5776,20 @@
         <v>13</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C142" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>374</v>
+        <v>279</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -5581,20 +5801,20 @@
         <v>13</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C143" s="5"/>
       <c r="D143" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>371</v>
+        <v>296</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -5603,24 +5823,20 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="2" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>376</v>
-      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
@@ -5628,23 +5844,23 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="2" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -5653,23 +5869,23 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -5678,23 +5894,23 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -5703,50 +5919,74 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="H148" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
-      <c r="B149" s="7"/>
+      <c r="A149" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
+      <c r="H149" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
-      <c r="B150" s="7"/>
+      <c r="A150" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
@@ -5754,23 +5994,23 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="2" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -5779,23 +6019,23 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="2" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -5804,23 +6044,23 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="2" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -5829,23 +6069,23 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="2" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -5853,150 +6093,90 @@
       <c r="M154" s="5"/>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="A155" s="5"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="A156" s="5"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="A157" s="5"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="A158" s="5"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="A159" s="5"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>397</v>
-      </c>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="A160" s="5"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>399</v>
-      </c>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
@@ -6004,7 +6184,7 @@
     </row>
     <row r="161">
       <c r="A161" s="5"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6019,7 +6199,7 @@
     </row>
     <row r="162">
       <c r="A162" s="5"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6034,7 +6214,7 @@
     </row>
     <row r="163">
       <c r="A163" s="5"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6049,7 +6229,7 @@
     </row>
     <row r="164">
       <c r="A164" s="5"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -6064,7 +6244,7 @@
     </row>
     <row r="165">
       <c r="A165" s="5"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6079,7 +6259,7 @@
     </row>
     <row r="166">
       <c r="A166" s="5"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6094,7 +6274,7 @@
     </row>
     <row r="167">
       <c r="A167" s="5"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6109,7 +6289,7 @@
     </row>
     <row r="168">
       <c r="A168" s="5"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6124,7 +6304,7 @@
     </row>
     <row r="169">
       <c r="A169" s="5"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6139,7 +6319,7 @@
     </row>
     <row r="170">
       <c r="A170" s="5"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6154,7 +6334,7 @@
     </row>
     <row r="171">
       <c r="A171" s="5"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6169,7 +6349,7 @@
     </row>
     <row r="172">
       <c r="A172" s="5"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6184,7 +6364,7 @@
     </row>
     <row r="173">
       <c r="A173" s="5"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -6199,7 +6379,7 @@
     </row>
     <row r="174">
       <c r="A174" s="5"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -6214,7 +6394,7 @@
     </row>
     <row r="175">
       <c r="A175" s="5"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="12"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -6229,7 +6409,7 @@
     </row>
     <row r="176">
       <c r="A176" s="5"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -6244,7 +6424,7 @@
     </row>
     <row r="177">
       <c r="A177" s="5"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -6259,7 +6439,7 @@
     </row>
     <row r="178">
       <c r="A178" s="5"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -6274,7 +6454,7 @@
     </row>
     <row r="179">
       <c r="A179" s="5"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -6289,7 +6469,7 @@
     </row>
     <row r="180">
       <c r="A180" s="5"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -6304,7 +6484,7 @@
     </row>
     <row r="181">
       <c r="A181" s="5"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -6319,7 +6499,7 @@
     </row>
     <row r="182">
       <c r="A182" s="5"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -6334,7 +6514,7 @@
     </row>
     <row r="183">
       <c r="A183" s="5"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -6349,7 +6529,7 @@
     </row>
     <row r="184">
       <c r="A184" s="5"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -6364,7 +6544,7 @@
     </row>
     <row r="185">
       <c r="A185" s="5"/>
-      <c r="B185" s="7"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -6379,7 +6559,7 @@
     </row>
     <row r="186">
       <c r="A186" s="5"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -6394,7 +6574,7 @@
     </row>
     <row r="187">
       <c r="A187" s="5"/>
-      <c r="B187" s="7"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -6409,7 +6589,7 @@
     </row>
     <row r="188">
       <c r="A188" s="5"/>
-      <c r="B188" s="7"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -6424,7 +6604,7 @@
     </row>
     <row r="189">
       <c r="A189" s="5"/>
-      <c r="B189" s="7"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -6439,7 +6619,7 @@
     </row>
     <row r="190">
       <c r="A190" s="5"/>
-      <c r="B190" s="7"/>
+      <c r="B190" s="12"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -6454,7 +6634,7 @@
     </row>
     <row r="191">
       <c r="A191" s="5"/>
-      <c r="B191" s="7"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -6469,7 +6649,7 @@
     </row>
     <row r="192">
       <c r="A192" s="5"/>
-      <c r="B192" s="7"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -6484,7 +6664,7 @@
     </row>
     <row r="193">
       <c r="A193" s="5"/>
-      <c r="B193" s="7"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -6499,7 +6679,7 @@
     </row>
     <row r="194">
       <c r="A194" s="5"/>
-      <c r="B194" s="7"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -6514,7 +6694,7 @@
     </row>
     <row r="195">
       <c r="A195" s="5"/>
-      <c r="B195" s="7"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -6529,7 +6709,7 @@
     </row>
     <row r="196">
       <c r="A196" s="5"/>
-      <c r="B196" s="7"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -6544,7 +6724,7 @@
     </row>
     <row r="197">
       <c r="A197" s="5"/>
-      <c r="B197" s="7"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -6559,7 +6739,7 @@
     </row>
     <row r="198">
       <c r="A198" s="5"/>
-      <c r="B198" s="7"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -6574,7 +6754,7 @@
     </row>
     <row r="199">
       <c r="A199" s="5"/>
-      <c r="B199" s="7"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -6589,7 +6769,7 @@
     </row>
     <row r="200">
       <c r="A200" s="5"/>
-      <c r="B200" s="7"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -6604,7 +6784,7 @@
     </row>
     <row r="201">
       <c r="A201" s="5"/>
-      <c r="B201" s="7"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -6619,7 +6799,7 @@
     </row>
     <row r="202">
       <c r="A202" s="5"/>
-      <c r="B202" s="7"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -6634,7 +6814,7 @@
     </row>
     <row r="203">
       <c r="A203" s="5"/>
-      <c r="B203" s="7"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -6649,7 +6829,7 @@
     </row>
     <row r="204">
       <c r="A204" s="5"/>
-      <c r="B204" s="7"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -6664,7 +6844,7 @@
     </row>
     <row r="205">
       <c r="A205" s="5"/>
-      <c r="B205" s="7"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -6679,7 +6859,7 @@
     </row>
     <row r="206">
       <c r="A206" s="5"/>
-      <c r="B206" s="7"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -6694,7 +6874,7 @@
     </row>
     <row r="207">
       <c r="A207" s="5"/>
-      <c r="B207" s="7"/>
+      <c r="B207" s="12"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -6709,7 +6889,7 @@
     </row>
     <row r="208">
       <c r="A208" s="5"/>
-      <c r="B208" s="7"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -6724,7 +6904,7 @@
     </row>
     <row r="209">
       <c r="A209" s="5"/>
-      <c r="B209" s="7"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -6739,7 +6919,7 @@
     </row>
     <row r="210">
       <c r="A210" s="5"/>
-      <c r="B210" s="7"/>
+      <c r="B210" s="12"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -6754,7 +6934,7 @@
     </row>
     <row r="211">
       <c r="A211" s="5"/>
-      <c r="B211" s="7"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -6769,7 +6949,7 @@
     </row>
     <row r="212">
       <c r="A212" s="5"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -6784,7 +6964,7 @@
     </row>
     <row r="213">
       <c r="A213" s="5"/>
-      <c r="B213" s="7"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -6799,7 +6979,7 @@
     </row>
     <row r="214">
       <c r="A214" s="5"/>
-      <c r="B214" s="7"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -6814,7 +6994,7 @@
     </row>
     <row r="215">
       <c r="A215" s="5"/>
-      <c r="B215" s="7"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -6829,7 +7009,7 @@
     </row>
     <row r="216">
       <c r="A216" s="5"/>
-      <c r="B216" s="7"/>
+      <c r="B216" s="12"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -6844,7 +7024,7 @@
     </row>
     <row r="217">
       <c r="A217" s="5"/>
-      <c r="B217" s="7"/>
+      <c r="B217" s="12"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -6859,7 +7039,7 @@
     </row>
     <row r="218">
       <c r="A218" s="5"/>
-      <c r="B218" s="7"/>
+      <c r="B218" s="12"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -6874,7 +7054,7 @@
     </row>
     <row r="219">
       <c r="A219" s="5"/>
-      <c r="B219" s="7"/>
+      <c r="B219" s="12"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -6889,7 +7069,7 @@
     </row>
     <row r="220">
       <c r="A220" s="5"/>
-      <c r="B220" s="7"/>
+      <c r="B220" s="12"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -6904,7 +7084,7 @@
     </row>
     <row r="221">
       <c r="A221" s="5"/>
-      <c r="B221" s="7"/>
+      <c r="B221" s="12"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -6919,7 +7099,7 @@
     </row>
     <row r="222">
       <c r="A222" s="5"/>
-      <c r="B222" s="7"/>
+      <c r="B222" s="12"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -6934,7 +7114,7 @@
     </row>
     <row r="223">
       <c r="A223" s="5"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="12"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -6949,7 +7129,7 @@
     </row>
     <row r="224">
       <c r="A224" s="5"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="12"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -6964,7 +7144,7 @@
     </row>
     <row r="225">
       <c r="A225" s="5"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="12"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -6979,7 +7159,7 @@
     </row>
     <row r="226">
       <c r="A226" s="5"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="12"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -6994,7 +7174,7 @@
     </row>
     <row r="227">
       <c r="A227" s="5"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="12"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -7009,7 +7189,7 @@
     </row>
     <row r="228">
       <c r="A228" s="5"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="12"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -7024,7 +7204,7 @@
     </row>
     <row r="229">
       <c r="A229" s="5"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -7039,7 +7219,7 @@
     </row>
     <row r="230">
       <c r="A230" s="5"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="12"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -7054,7 +7234,7 @@
     </row>
     <row r="231">
       <c r="A231" s="5"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="12"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -7069,7 +7249,7 @@
     </row>
     <row r="232">
       <c r="A232" s="5"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="12"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -7084,7 +7264,7 @@
     </row>
     <row r="233">
       <c r="A233" s="5"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -7099,7 +7279,7 @@
     </row>
     <row r="234">
       <c r="A234" s="5"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -7114,7 +7294,7 @@
     </row>
     <row r="235">
       <c r="A235" s="5"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="12"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -7129,7 +7309,7 @@
     </row>
     <row r="236">
       <c r="A236" s="5"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -7144,7 +7324,7 @@
     </row>
     <row r="237">
       <c r="A237" s="5"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -7159,7 +7339,7 @@
     </row>
     <row r="238">
       <c r="A238" s="5"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="12"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -7174,7 +7354,7 @@
     </row>
     <row r="239">
       <c r="A239" s="5"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="12"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -7189,7 +7369,7 @@
     </row>
     <row r="240">
       <c r="A240" s="5"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="12"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -7204,7 +7384,7 @@
     </row>
     <row r="241">
       <c r="A241" s="5"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="12"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -7219,7 +7399,7 @@
     </row>
     <row r="242">
       <c r="A242" s="5"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="12"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -7234,7 +7414,7 @@
     </row>
     <row r="243">
       <c r="A243" s="5"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="12"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -7249,7 +7429,7 @@
     </row>
     <row r="244">
       <c r="A244" s="5"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -7264,7 +7444,7 @@
     </row>
     <row r="245">
       <c r="A245" s="5"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="12"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -7279,7 +7459,7 @@
     </row>
     <row r="246">
       <c r="A246" s="5"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="12"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -7294,7 +7474,7 @@
     </row>
     <row r="247">
       <c r="A247" s="5"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="12"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -7309,7 +7489,7 @@
     </row>
     <row r="248">
       <c r="A248" s="5"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="12"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -7324,7 +7504,7 @@
     </row>
     <row r="249">
       <c r="A249" s="5"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="12"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -7339,7 +7519,7 @@
     </row>
     <row r="250">
       <c r="A250" s="5"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="12"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -7354,7 +7534,7 @@
     </row>
     <row r="251">
       <c r="A251" s="5"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -7369,7 +7549,7 @@
     </row>
     <row r="252">
       <c r="A252" s="5"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="12"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -7384,7 +7564,7 @@
     </row>
     <row r="253">
       <c r="A253" s="5"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="12"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -7399,7 +7579,7 @@
     </row>
     <row r="254">
       <c r="A254" s="5"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="12"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -7414,7 +7594,7 @@
     </row>
     <row r="255">
       <c r="A255" s="5"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="12"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -7429,7 +7609,7 @@
     </row>
     <row r="256">
       <c r="A256" s="5"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="12"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -7444,7 +7624,7 @@
     </row>
     <row r="257">
       <c r="A257" s="5"/>
-      <c r="B257" s="7"/>
+      <c r="B257" s="12"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -7459,7 +7639,7 @@
     </row>
     <row r="258">
       <c r="A258" s="5"/>
-      <c r="B258" s="7"/>
+      <c r="B258" s="12"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -7474,7 +7654,7 @@
     </row>
     <row r="259">
       <c r="A259" s="5"/>
-      <c r="B259" s="7"/>
+      <c r="B259" s="12"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -7489,7 +7669,7 @@
     </row>
     <row r="260">
       <c r="A260" s="5"/>
-      <c r="B260" s="7"/>
+      <c r="B260" s="12"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -7504,7 +7684,7 @@
     </row>
     <row r="261">
       <c r="A261" s="5"/>
-      <c r="B261" s="7"/>
+      <c r="B261" s="12"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -7519,7 +7699,7 @@
     </row>
     <row r="262">
       <c r="A262" s="5"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="12"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -7534,7 +7714,7 @@
     </row>
     <row r="263">
       <c r="A263" s="5"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="12"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -7549,7 +7729,7 @@
     </row>
     <row r="264">
       <c r="A264" s="5"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="12"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -7564,7 +7744,7 @@
     </row>
     <row r="265">
       <c r="A265" s="5"/>
-      <c r="B265" s="7"/>
+      <c r="B265" s="12"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -7579,7 +7759,7 @@
     </row>
     <row r="266">
       <c r="A266" s="5"/>
-      <c r="B266" s="7"/>
+      <c r="B266" s="12"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -7594,7 +7774,7 @@
     </row>
     <row r="267">
       <c r="A267" s="5"/>
-      <c r="B267" s="7"/>
+      <c r="B267" s="12"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -7609,7 +7789,7 @@
     </row>
     <row r="268">
       <c r="A268" s="5"/>
-      <c r="B268" s="7"/>
+      <c r="B268" s="12"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -7624,7 +7804,7 @@
     </row>
     <row r="269">
       <c r="A269" s="5"/>
-      <c r="B269" s="7"/>
+      <c r="B269" s="12"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -7639,7 +7819,7 @@
     </row>
     <row r="270">
       <c r="A270" s="5"/>
-      <c r="B270" s="7"/>
+      <c r="B270" s="12"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -7654,7 +7834,7 @@
     </row>
     <row r="271">
       <c r="A271" s="5"/>
-      <c r="B271" s="7"/>
+      <c r="B271" s="12"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -7669,7 +7849,7 @@
     </row>
     <row r="272">
       <c r="A272" s="5"/>
-      <c r="B272" s="7"/>
+      <c r="B272" s="12"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -7684,7 +7864,7 @@
     </row>
     <row r="273">
       <c r="A273" s="5"/>
-      <c r="B273" s="7"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -7699,7 +7879,7 @@
     </row>
     <row r="274">
       <c r="A274" s="5"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -7714,7 +7894,7 @@
     </row>
     <row r="275">
       <c r="A275" s="5"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="12"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -7729,7 +7909,7 @@
     </row>
     <row r="276">
       <c r="A276" s="5"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="12"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -7744,7 +7924,7 @@
     </row>
     <row r="277">
       <c r="A277" s="5"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="12"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -7759,7 +7939,7 @@
     </row>
     <row r="278">
       <c r="A278" s="5"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="12"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -7774,7 +7954,7 @@
     </row>
     <row r="279">
       <c r="A279" s="5"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="12"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -7789,7 +7969,7 @@
     </row>
     <row r="280">
       <c r="A280" s="5"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="12"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -7804,7 +7984,7 @@
     </row>
     <row r="281">
       <c r="A281" s="5"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="12"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -7819,7 +7999,7 @@
     </row>
     <row r="282">
       <c r="A282" s="5"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="12"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -7834,7 +8014,7 @@
     </row>
     <row r="283">
       <c r="A283" s="5"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="12"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -7849,7 +8029,7 @@
     </row>
     <row r="284">
       <c r="A284" s="5"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="12"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -7864,7 +8044,7 @@
     </row>
     <row r="285">
       <c r="A285" s="5"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="12"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -7879,7 +8059,7 @@
     </row>
     <row r="286">
       <c r="A286" s="5"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="12"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -7894,7 +8074,7 @@
     </row>
     <row r="287">
       <c r="A287" s="5"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="12"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -7909,7 +8089,7 @@
     </row>
     <row r="288">
       <c r="A288" s="5"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="12"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -7924,7 +8104,7 @@
     </row>
     <row r="289">
       <c r="A289" s="5"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="12"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -7939,7 +8119,7 @@
     </row>
     <row r="290">
       <c r="A290" s="5"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="12"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -7954,7 +8134,7 @@
     </row>
     <row r="291">
       <c r="A291" s="5"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="12"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -7969,7 +8149,7 @@
     </row>
     <row r="292">
       <c r="A292" s="5"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="12"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -7984,7 +8164,7 @@
     </row>
     <row r="293">
       <c r="A293" s="5"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="12"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -7999,7 +8179,7 @@
     </row>
     <row r="294">
       <c r="A294" s="5"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -8014,7 +8194,7 @@
     </row>
     <row r="295">
       <c r="A295" s="5"/>
-      <c r="B295" s="7"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -8029,7 +8209,7 @@
     </row>
     <row r="296">
       <c r="A296" s="5"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="12"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -8044,7 +8224,7 @@
     </row>
     <row r="297">
       <c r="A297" s="5"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="12"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -8059,7 +8239,7 @@
     </row>
     <row r="298">
       <c r="A298" s="5"/>
-      <c r="B298" s="7"/>
+      <c r="B298" s="12"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -8074,7 +8254,7 @@
     </row>
     <row r="299">
       <c r="A299" s="5"/>
-      <c r="B299" s="7"/>
+      <c r="B299" s="12"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -8089,7 +8269,7 @@
     </row>
     <row r="300">
       <c r="A300" s="5"/>
-      <c r="B300" s="7"/>
+      <c r="B300" s="12"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -8104,7 +8284,7 @@
     </row>
     <row r="301">
       <c r="A301" s="5"/>
-      <c r="B301" s="7"/>
+      <c r="B301" s="12"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -8119,7 +8299,7 @@
     </row>
     <row r="302">
       <c r="A302" s="5"/>
-      <c r="B302" s="7"/>
+      <c r="B302" s="12"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -8134,7 +8314,7 @@
     </row>
     <row r="303">
       <c r="A303" s="5"/>
-      <c r="B303" s="7"/>
+      <c r="B303" s="12"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -8149,7 +8329,7 @@
     </row>
     <row r="304">
       <c r="A304" s="5"/>
-      <c r="B304" s="7"/>
+      <c r="B304" s="12"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -8164,7 +8344,7 @@
     </row>
     <row r="305">
       <c r="A305" s="5"/>
-      <c r="B305" s="7"/>
+      <c r="B305" s="12"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -8179,7 +8359,7 @@
     </row>
     <row r="306">
       <c r="A306" s="5"/>
-      <c r="B306" s="7"/>
+      <c r="B306" s="12"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -8194,7 +8374,7 @@
     </row>
     <row r="307">
       <c r="A307" s="5"/>
-      <c r="B307" s="7"/>
+      <c r="B307" s="12"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -8209,7 +8389,7 @@
     </row>
     <row r="308">
       <c r="A308" s="5"/>
-      <c r="B308" s="7"/>
+      <c r="B308" s="12"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -8224,7 +8404,7 @@
     </row>
     <row r="309">
       <c r="A309" s="5"/>
-      <c r="B309" s="7"/>
+      <c r="B309" s="12"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -8239,7 +8419,7 @@
     </row>
     <row r="310">
       <c r="A310" s="5"/>
-      <c r="B310" s="7"/>
+      <c r="B310" s="12"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -8254,7 +8434,7 @@
     </row>
     <row r="311">
       <c r="A311" s="5"/>
-      <c r="B311" s="7"/>
+      <c r="B311" s="12"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -8269,7 +8449,7 @@
     </row>
     <row r="312">
       <c r="A312" s="5"/>
-      <c r="B312" s="7"/>
+      <c r="B312" s="12"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -8284,7 +8464,7 @@
     </row>
     <row r="313">
       <c r="A313" s="5"/>
-      <c r="B313" s="7"/>
+      <c r="B313" s="12"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -8299,7 +8479,7 @@
     </row>
     <row r="314">
       <c r="A314" s="5"/>
-      <c r="B314" s="7"/>
+      <c r="B314" s="12"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -8314,7 +8494,7 @@
     </row>
     <row r="315">
       <c r="A315" s="5"/>
-      <c r="B315" s="7"/>
+      <c r="B315" s="12"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -8329,7 +8509,7 @@
     </row>
     <row r="316">
       <c r="A316" s="5"/>
-      <c r="B316" s="7"/>
+      <c r="B316" s="12"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -8344,7 +8524,7 @@
     </row>
     <row r="317">
       <c r="A317" s="5"/>
-      <c r="B317" s="7"/>
+      <c r="B317" s="12"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -8359,7 +8539,7 @@
     </row>
     <row r="318">
       <c r="A318" s="5"/>
-      <c r="B318" s="7"/>
+      <c r="B318" s="12"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -8374,7 +8554,7 @@
     </row>
     <row r="319">
       <c r="A319" s="5"/>
-      <c r="B319" s="7"/>
+      <c r="B319" s="12"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -8389,7 +8569,7 @@
     </row>
     <row r="320">
       <c r="A320" s="5"/>
-      <c r="B320" s="7"/>
+      <c r="B320" s="12"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -8404,7 +8584,7 @@
     </row>
     <row r="321">
       <c r="A321" s="5"/>
-      <c r="B321" s="7"/>
+      <c r="B321" s="12"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -8419,7 +8599,7 @@
     </row>
     <row r="322">
       <c r="A322" s="5"/>
-      <c r="B322" s="7"/>
+      <c r="B322" s="12"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -8434,7 +8614,7 @@
     </row>
     <row r="323">
       <c r="A323" s="5"/>
-      <c r="B323" s="7"/>
+      <c r="B323" s="12"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -8449,7 +8629,7 @@
     </row>
     <row r="324">
       <c r="A324" s="5"/>
-      <c r="B324" s="7"/>
+      <c r="B324" s="12"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -8464,7 +8644,7 @@
     </row>
     <row r="325">
       <c r="A325" s="5"/>
-      <c r="B325" s="7"/>
+      <c r="B325" s="12"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -8479,7 +8659,7 @@
     </row>
     <row r="326">
       <c r="A326" s="5"/>
-      <c r="B326" s="7"/>
+      <c r="B326" s="12"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -8494,7 +8674,7 @@
     </row>
     <row r="327">
       <c r="A327" s="5"/>
-      <c r="B327" s="7"/>
+      <c r="B327" s="12"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -8509,7 +8689,7 @@
     </row>
     <row r="328">
       <c r="A328" s="5"/>
-      <c r="B328" s="7"/>
+      <c r="B328" s="12"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -8524,7 +8704,7 @@
     </row>
     <row r="329">
       <c r="A329" s="5"/>
-      <c r="B329" s="7"/>
+      <c r="B329" s="12"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -8539,7 +8719,7 @@
     </row>
     <row r="330">
       <c r="A330" s="5"/>
-      <c r="B330" s="7"/>
+      <c r="B330" s="12"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -8554,7 +8734,7 @@
     </row>
     <row r="331">
       <c r="A331" s="5"/>
-      <c r="B331" s="7"/>
+      <c r="B331" s="12"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -8569,7 +8749,7 @@
     </row>
     <row r="332">
       <c r="A332" s="5"/>
-      <c r="B332" s="7"/>
+      <c r="B332" s="12"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -8584,7 +8764,7 @@
     </row>
     <row r="333">
       <c r="A333" s="5"/>
-      <c r="B333" s="7"/>
+      <c r="B333" s="12"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -8599,7 +8779,7 @@
     </row>
     <row r="334">
       <c r="A334" s="5"/>
-      <c r="B334" s="7"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -8614,7 +8794,7 @@
     </row>
     <row r="335">
       <c r="A335" s="5"/>
-      <c r="B335" s="7"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -8629,7 +8809,7 @@
     </row>
     <row r="336">
       <c r="A336" s="5"/>
-      <c r="B336" s="7"/>
+      <c r="B336" s="12"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -8644,7 +8824,7 @@
     </row>
     <row r="337">
       <c r="A337" s="5"/>
-      <c r="B337" s="7"/>
+      <c r="B337" s="12"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -8659,7 +8839,7 @@
     </row>
     <row r="338">
       <c r="A338" s="5"/>
-      <c r="B338" s="7"/>
+      <c r="B338" s="12"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -8674,7 +8854,7 @@
     </row>
     <row r="339">
       <c r="A339" s="5"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="12"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -8689,7 +8869,7 @@
     </row>
     <row r="340">
       <c r="A340" s="5"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="12"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -8704,7 +8884,7 @@
     </row>
     <row r="341">
       <c r="A341" s="5"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="12"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -8719,7 +8899,7 @@
     </row>
     <row r="342">
       <c r="A342" s="5"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="12"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -8734,7 +8914,7 @@
     </row>
     <row r="343">
       <c r="A343" s="5"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="12"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -8749,7 +8929,7 @@
     </row>
     <row r="344">
       <c r="A344" s="5"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="12"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -8764,7 +8944,7 @@
     </row>
     <row r="345">
       <c r="A345" s="5"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="12"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -8779,7 +8959,7 @@
     </row>
     <row r="346">
       <c r="A346" s="5"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="12"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -8794,7 +8974,7 @@
     </row>
     <row r="347">
       <c r="A347" s="5"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="12"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -8809,7 +8989,7 @@
     </row>
     <row r="348">
       <c r="A348" s="5"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="12"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -8824,7 +9004,7 @@
     </row>
     <row r="349">
       <c r="A349" s="5"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="12"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -8839,7 +9019,7 @@
     </row>
     <row r="350">
       <c r="A350" s="5"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="12"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -8854,7 +9034,7 @@
     </row>
     <row r="351">
       <c r="A351" s="5"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="12"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -8869,7 +9049,7 @@
     </row>
     <row r="352">
       <c r="A352" s="5"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="12"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -8884,7 +9064,7 @@
     </row>
     <row r="353">
       <c r="A353" s="5"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="12"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -8899,7 +9079,7 @@
     </row>
     <row r="354">
       <c r="A354" s="5"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="12"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -8914,7 +9094,7 @@
     </row>
     <row r="355">
       <c r="A355" s="5"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="12"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -8929,7 +9109,7 @@
     </row>
     <row r="356">
       <c r="A356" s="5"/>
-      <c r="B356" s="7"/>
+      <c r="B356" s="12"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -8944,7 +9124,7 @@
     </row>
     <row r="357">
       <c r="A357" s="5"/>
-      <c r="B357" s="7"/>
+      <c r="B357" s="12"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -8959,7 +9139,7 @@
     </row>
     <row r="358">
       <c r="A358" s="5"/>
-      <c r="B358" s="7"/>
+      <c r="B358" s="12"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -8974,7 +9154,7 @@
     </row>
     <row r="359">
       <c r="A359" s="5"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="12"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -8989,7 +9169,7 @@
     </row>
     <row r="360">
       <c r="A360" s="5"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="12"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -9004,7 +9184,7 @@
     </row>
     <row r="361">
       <c r="A361" s="5"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="12"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -9019,7 +9199,7 @@
     </row>
     <row r="362">
       <c r="A362" s="5"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="12"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -9034,7 +9214,7 @@
     </row>
     <row r="363">
       <c r="A363" s="5"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="12"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -9049,7 +9229,7 @@
     </row>
     <row r="364">
       <c r="A364" s="5"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="12"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -9064,7 +9244,7 @@
     </row>
     <row r="365">
       <c r="A365" s="5"/>
-      <c r="B365" s="7"/>
+      <c r="B365" s="12"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -9079,7 +9259,7 @@
     </row>
     <row r="366">
       <c r="A366" s="5"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="12"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -9094,7 +9274,7 @@
     </row>
     <row r="367">
       <c r="A367" s="5"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="12"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -9109,7 +9289,7 @@
     </row>
     <row r="368">
       <c r="A368" s="5"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="12"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -9124,7 +9304,7 @@
     </row>
     <row r="369">
       <c r="A369" s="5"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="12"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -9139,7 +9319,7 @@
     </row>
     <row r="370">
       <c r="A370" s="5"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="12"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -9154,7 +9334,7 @@
     </row>
     <row r="371">
       <c r="A371" s="5"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="12"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -9169,7 +9349,7 @@
     </row>
     <row r="372">
       <c r="A372" s="5"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="12"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -9184,7 +9364,7 @@
     </row>
     <row r="373">
       <c r="A373" s="5"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="12"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -9199,7 +9379,7 @@
     </row>
     <row r="374">
       <c r="A374" s="5"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="12"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -9214,7 +9394,7 @@
     </row>
     <row r="375">
       <c r="A375" s="5"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="12"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -9229,7 +9409,7 @@
     </row>
     <row r="376">
       <c r="A376" s="5"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="12"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -9244,7 +9424,7 @@
     </row>
     <row r="377">
       <c r="A377" s="5"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="12"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -9259,7 +9439,7 @@
     </row>
     <row r="378">
       <c r="A378" s="5"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="12"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -9274,7 +9454,7 @@
     </row>
     <row r="379">
       <c r="A379" s="5"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="12"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -9289,7 +9469,7 @@
     </row>
     <row r="380">
       <c r="A380" s="5"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="12"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -9304,7 +9484,7 @@
     </row>
     <row r="381">
       <c r="A381" s="5"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="12"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -9319,7 +9499,7 @@
     </row>
     <row r="382">
       <c r="A382" s="5"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="12"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -9334,7 +9514,7 @@
     </row>
     <row r="383">
       <c r="A383" s="5"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="12"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -9349,7 +9529,7 @@
     </row>
     <row r="384">
       <c r="A384" s="5"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="12"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -9364,7 +9544,7 @@
     </row>
     <row r="385">
       <c r="A385" s="5"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="12"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -9379,7 +9559,7 @@
     </row>
     <row r="386">
       <c r="A386" s="5"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="12"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -9394,7 +9574,7 @@
     </row>
     <row r="387">
       <c r="A387" s="5"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="12"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -9409,7 +9589,7 @@
     </row>
     <row r="388">
       <c r="A388" s="5"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="12"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -9424,7 +9604,7 @@
     </row>
     <row r="389">
       <c r="A389" s="5"/>
-      <c r="B389" s="7"/>
+      <c r="B389" s="12"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -9439,7 +9619,7 @@
     </row>
     <row r="390">
       <c r="A390" s="5"/>
-      <c r="B390" s="7"/>
+      <c r="B390" s="12"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -9454,7 +9634,7 @@
     </row>
     <row r="391">
       <c r="A391" s="5"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="12"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -9469,7 +9649,7 @@
     </row>
     <row r="392">
       <c r="A392" s="5"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="12"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -9484,7 +9664,7 @@
     </row>
     <row r="393">
       <c r="A393" s="5"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="12"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -9499,7 +9679,7 @@
     </row>
     <row r="394">
       <c r="A394" s="5"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="12"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -9514,7 +9694,7 @@
     </row>
     <row r="395">
       <c r="A395" s="5"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="12"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -9529,7 +9709,7 @@
     </row>
     <row r="396">
       <c r="A396" s="5"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="12"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -9544,7 +9724,7 @@
     </row>
     <row r="397">
       <c r="A397" s="5"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="12"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -9559,7 +9739,7 @@
     </row>
     <row r="398">
       <c r="A398" s="5"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="12"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -9574,7 +9754,7 @@
     </row>
     <row r="399">
       <c r="A399" s="5"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="12"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -9589,7 +9769,7 @@
     </row>
     <row r="400">
       <c r="A400" s="5"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="12"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -9604,7 +9784,7 @@
     </row>
     <row r="401">
       <c r="A401" s="5"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="12"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -9619,7 +9799,7 @@
     </row>
     <row r="402">
       <c r="A402" s="5"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="12"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -9634,7 +9814,7 @@
     </row>
     <row r="403">
       <c r="A403" s="5"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="12"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -9649,7 +9829,7 @@
     </row>
     <row r="404">
       <c r="A404" s="5"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="12"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -9664,7 +9844,7 @@
     </row>
     <row r="405">
       <c r="A405" s="5"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="12"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -9679,7 +9859,7 @@
     </row>
     <row r="406">
       <c r="A406" s="5"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="12"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -9694,7 +9874,7 @@
     </row>
     <row r="407">
       <c r="A407" s="5"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="12"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -9709,7 +9889,7 @@
     </row>
     <row r="408">
       <c r="A408" s="5"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="12"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -9724,7 +9904,7 @@
     </row>
     <row r="409">
       <c r="A409" s="5"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="12"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -9739,7 +9919,7 @@
     </row>
     <row r="410">
       <c r="A410" s="5"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="12"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -9754,7 +9934,7 @@
     </row>
     <row r="411">
       <c r="A411" s="5"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="12"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -9769,7 +9949,7 @@
     </row>
     <row r="412">
       <c r="A412" s="5"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="12"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -9784,7 +9964,7 @@
     </row>
     <row r="413">
       <c r="A413" s="5"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="12"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -9799,7 +9979,7 @@
     </row>
     <row r="414">
       <c r="A414" s="5"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="12"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -9814,7 +9994,7 @@
     </row>
     <row r="415">
       <c r="A415" s="5"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="12"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -9829,7 +10009,7 @@
     </row>
     <row r="416">
       <c r="A416" s="5"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="12"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -9844,7 +10024,7 @@
     </row>
     <row r="417">
       <c r="A417" s="5"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="12"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -9859,7 +10039,7 @@
     </row>
     <row r="418">
       <c r="A418" s="5"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="12"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -9874,7 +10054,7 @@
     </row>
     <row r="419">
       <c r="A419" s="5"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="12"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -9889,7 +10069,7 @@
     </row>
     <row r="420">
       <c r="A420" s="5"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="12"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -9904,7 +10084,7 @@
     </row>
     <row r="421">
       <c r="A421" s="5"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="12"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -9919,7 +10099,7 @@
     </row>
     <row r="422">
       <c r="A422" s="5"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="12"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -9934,7 +10114,7 @@
     </row>
     <row r="423">
       <c r="A423" s="5"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="12"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -9949,7 +10129,7 @@
     </row>
     <row r="424">
       <c r="A424" s="5"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="12"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -9964,7 +10144,7 @@
     </row>
     <row r="425">
       <c r="A425" s="5"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="12"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -9979,7 +10159,7 @@
     </row>
     <row r="426">
       <c r="A426" s="5"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="12"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -9994,7 +10174,7 @@
     </row>
     <row r="427">
       <c r="A427" s="5"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="12"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -10009,7 +10189,7 @@
     </row>
     <row r="428">
       <c r="A428" s="5"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="12"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -10024,7 +10204,7 @@
     </row>
     <row r="429">
       <c r="A429" s="5"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="12"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -10039,7 +10219,7 @@
     </row>
     <row r="430">
       <c r="A430" s="5"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="12"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -10054,7 +10234,7 @@
     </row>
     <row r="431">
       <c r="A431" s="5"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="12"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -10069,7 +10249,7 @@
     </row>
     <row r="432">
       <c r="A432" s="5"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="12"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -10084,7 +10264,7 @@
     </row>
     <row r="433">
       <c r="A433" s="5"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="12"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -10099,7 +10279,7 @@
     </row>
     <row r="434">
       <c r="A434" s="5"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="12"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -10114,7 +10294,7 @@
     </row>
     <row r="435">
       <c r="A435" s="5"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="12"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -10129,7 +10309,7 @@
     </row>
     <row r="436">
       <c r="A436" s="5"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="12"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -10144,7 +10324,7 @@
     </row>
     <row r="437">
       <c r="A437" s="5"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="12"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -10159,7 +10339,7 @@
     </row>
     <row r="438">
       <c r="A438" s="5"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="12"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -10174,7 +10354,7 @@
     </row>
     <row r="439">
       <c r="A439" s="5"/>
-      <c r="B439" s="7"/>
+      <c r="B439" s="12"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -10189,7 +10369,7 @@
     </row>
     <row r="440">
       <c r="A440" s="5"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="12"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -10204,7 +10384,7 @@
     </row>
     <row r="441">
       <c r="A441" s="5"/>
-      <c r="B441" s="7"/>
+      <c r="B441" s="12"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -10219,7 +10399,7 @@
     </row>
     <row r="442">
       <c r="A442" s="5"/>
-      <c r="B442" s="7"/>
+      <c r="B442" s="12"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -10234,7 +10414,7 @@
     </row>
     <row r="443">
       <c r="A443" s="5"/>
-      <c r="B443" s="7"/>
+      <c r="B443" s="12"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -10249,7 +10429,7 @@
     </row>
     <row r="444">
       <c r="A444" s="5"/>
-      <c r="B444" s="7"/>
+      <c r="B444" s="12"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -10264,7 +10444,7 @@
     </row>
     <row r="445">
       <c r="A445" s="5"/>
-      <c r="B445" s="7"/>
+      <c r="B445" s="12"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -10279,7 +10459,7 @@
     </row>
     <row r="446">
       <c r="A446" s="5"/>
-      <c r="B446" s="7"/>
+      <c r="B446" s="12"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -10294,7 +10474,7 @@
     </row>
     <row r="447">
       <c r="A447" s="5"/>
-      <c r="B447" s="7"/>
+      <c r="B447" s="12"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -10309,7 +10489,7 @@
     </row>
     <row r="448">
       <c r="A448" s="5"/>
-      <c r="B448" s="7"/>
+      <c r="B448" s="12"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -10324,7 +10504,7 @@
     </row>
     <row r="449">
       <c r="A449" s="5"/>
-      <c r="B449" s="7"/>
+      <c r="B449" s="12"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -10339,7 +10519,7 @@
     </row>
     <row r="450">
       <c r="A450" s="5"/>
-      <c r="B450" s="7"/>
+      <c r="B450" s="12"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -10354,7 +10534,7 @@
     </row>
     <row r="451">
       <c r="A451" s="5"/>
-      <c r="B451" s="7"/>
+      <c r="B451" s="12"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -10369,7 +10549,7 @@
     </row>
     <row r="452">
       <c r="A452" s="5"/>
-      <c r="B452" s="7"/>
+      <c r="B452" s="12"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -10384,7 +10564,7 @@
     </row>
     <row r="453">
       <c r="A453" s="5"/>
-      <c r="B453" s="7"/>
+      <c r="B453" s="12"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -10399,7 +10579,7 @@
     </row>
     <row r="454">
       <c r="A454" s="5"/>
-      <c r="B454" s="7"/>
+      <c r="B454" s="12"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -10414,7 +10594,7 @@
     </row>
     <row r="455">
       <c r="A455" s="5"/>
-      <c r="B455" s="7"/>
+      <c r="B455" s="12"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -10429,7 +10609,7 @@
     </row>
     <row r="456">
       <c r="A456" s="5"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="12"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -10444,7 +10624,7 @@
     </row>
     <row r="457">
       <c r="A457" s="5"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="12"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -10459,7 +10639,7 @@
     </row>
     <row r="458">
       <c r="A458" s="5"/>
-      <c r="B458" s="7"/>
+      <c r="B458" s="12"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -10474,7 +10654,7 @@
     </row>
     <row r="459">
       <c r="A459" s="5"/>
-      <c r="B459" s="7"/>
+      <c r="B459" s="12"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -10489,7 +10669,7 @@
     </row>
     <row r="460">
       <c r="A460" s="5"/>
-      <c r="B460" s="7"/>
+      <c r="B460" s="12"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -10504,7 +10684,7 @@
     </row>
     <row r="461">
       <c r="A461" s="5"/>
-      <c r="B461" s="7"/>
+      <c r="B461" s="12"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -10519,7 +10699,7 @@
     </row>
     <row r="462">
       <c r="A462" s="5"/>
-      <c r="B462" s="7"/>
+      <c r="B462" s="12"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -10534,7 +10714,7 @@
     </row>
     <row r="463">
       <c r="A463" s="5"/>
-      <c r="B463" s="7"/>
+      <c r="B463" s="12"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -10549,7 +10729,7 @@
     </row>
     <row r="464">
       <c r="A464" s="5"/>
-      <c r="B464" s="7"/>
+      <c r="B464" s="12"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -10564,7 +10744,7 @@
     </row>
     <row r="465">
       <c r="A465" s="5"/>
-      <c r="B465" s="7"/>
+      <c r="B465" s="12"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -10579,7 +10759,7 @@
     </row>
     <row r="466">
       <c r="A466" s="5"/>
-      <c r="B466" s="7"/>
+      <c r="B466" s="12"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -10594,7 +10774,7 @@
     </row>
     <row r="467">
       <c r="A467" s="5"/>
-      <c r="B467" s="7"/>
+      <c r="B467" s="12"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -10609,7 +10789,7 @@
     </row>
     <row r="468">
       <c r="A468" s="5"/>
-      <c r="B468" s="7"/>
+      <c r="B468" s="12"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -10624,7 +10804,7 @@
     </row>
     <row r="469">
       <c r="A469" s="5"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="12"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -10639,7 +10819,7 @@
     </row>
     <row r="470">
       <c r="A470" s="5"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="12"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -10654,7 +10834,7 @@
     </row>
     <row r="471">
       <c r="A471" s="5"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="12"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -10669,7 +10849,7 @@
     </row>
     <row r="472">
       <c r="A472" s="5"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="12"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -10684,7 +10864,7 @@
     </row>
     <row r="473">
       <c r="A473" s="5"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="12"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -10699,7 +10879,7 @@
     </row>
     <row r="474">
       <c r="A474" s="5"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="12"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -10714,7 +10894,7 @@
     </row>
     <row r="475">
       <c r="A475" s="5"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="12"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -10729,7 +10909,7 @@
     </row>
     <row r="476">
       <c r="A476" s="5"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="12"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -10744,7 +10924,7 @@
     </row>
     <row r="477">
       <c r="A477" s="5"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="12"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -10759,7 +10939,7 @@
     </row>
     <row r="478">
       <c r="A478" s="5"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="12"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -10774,7 +10954,7 @@
     </row>
     <row r="479">
       <c r="A479" s="5"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="12"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -10789,7 +10969,7 @@
     </row>
     <row r="480">
       <c r="A480" s="5"/>
-      <c r="B480" s="7"/>
+      <c r="B480" s="12"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -10804,7 +10984,7 @@
     </row>
     <row r="481">
       <c r="A481" s="5"/>
-      <c r="B481" s="7"/>
+      <c r="B481" s="12"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -10819,7 +10999,7 @@
     </row>
     <row r="482">
       <c r="A482" s="5"/>
-      <c r="B482" s="7"/>
+      <c r="B482" s="12"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -10834,7 +11014,7 @@
     </row>
     <row r="483">
       <c r="A483" s="5"/>
-      <c r="B483" s="7"/>
+      <c r="B483" s="12"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -10849,7 +11029,7 @@
     </row>
     <row r="484">
       <c r="A484" s="5"/>
-      <c r="B484" s="7"/>
+      <c r="B484" s="12"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -10864,7 +11044,7 @@
     </row>
     <row r="485">
       <c r="A485" s="5"/>
-      <c r="B485" s="7"/>
+      <c r="B485" s="12"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -10879,7 +11059,7 @@
     </row>
     <row r="486">
       <c r="A486" s="5"/>
-      <c r="B486" s="7"/>
+      <c r="B486" s="12"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -10894,7 +11074,7 @@
     </row>
     <row r="487">
       <c r="A487" s="5"/>
-      <c r="B487" s="7"/>
+      <c r="B487" s="12"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -10909,7 +11089,7 @@
     </row>
     <row r="488">
       <c r="A488" s="5"/>
-      <c r="B488" s="7"/>
+      <c r="B488" s="12"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -10924,7 +11104,7 @@
     </row>
     <row r="489">
       <c r="A489" s="5"/>
-      <c r="B489" s="7"/>
+      <c r="B489" s="12"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -10939,7 +11119,7 @@
     </row>
     <row r="490">
       <c r="A490" s="5"/>
-      <c r="B490" s="7"/>
+      <c r="B490" s="12"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -10954,7 +11134,7 @@
     </row>
     <row r="491">
       <c r="A491" s="5"/>
-      <c r="B491" s="7"/>
+      <c r="B491" s="12"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -10969,7 +11149,7 @@
     </row>
     <row r="492">
       <c r="A492" s="5"/>
-      <c r="B492" s="7"/>
+      <c r="B492" s="12"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -10984,7 +11164,7 @@
     </row>
     <row r="493">
       <c r="A493" s="5"/>
-      <c r="B493" s="7"/>
+      <c r="B493" s="12"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -10999,7 +11179,7 @@
     </row>
     <row r="494">
       <c r="A494" s="5"/>
-      <c r="B494" s="7"/>
+      <c r="B494" s="12"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -11014,7 +11194,7 @@
     </row>
     <row r="495">
       <c r="A495" s="5"/>
-      <c r="B495" s="7"/>
+      <c r="B495" s="12"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -11029,7 +11209,7 @@
     </row>
     <row r="496">
       <c r="A496" s="5"/>
-      <c r="B496" s="7"/>
+      <c r="B496" s="12"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -11044,7 +11224,7 @@
     </row>
     <row r="497">
       <c r="A497" s="5"/>
-      <c r="B497" s="7"/>
+      <c r="B497" s="12"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -11059,7 +11239,7 @@
     </row>
     <row r="498">
       <c r="A498" s="5"/>
-      <c r="B498" s="7"/>
+      <c r="B498" s="12"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -11074,7 +11254,7 @@
     </row>
     <row r="499">
       <c r="A499" s="5"/>
-      <c r="B499" s="7"/>
+      <c r="B499" s="12"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -11089,7 +11269,7 @@
     </row>
     <row r="500">
       <c r="A500" s="5"/>
-      <c r="B500" s="7"/>
+      <c r="B500" s="12"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -11104,7 +11284,7 @@
     </row>
     <row r="501">
       <c r="A501" s="5"/>
-      <c r="B501" s="7"/>
+      <c r="B501" s="12"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -11119,7 +11299,7 @@
     </row>
     <row r="502">
       <c r="A502" s="5"/>
-      <c r="B502" s="7"/>
+      <c r="B502" s="12"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -11134,7 +11314,7 @@
     </row>
     <row r="503">
       <c r="A503" s="5"/>
-      <c r="B503" s="7"/>
+      <c r="B503" s="12"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -11149,7 +11329,7 @@
     </row>
     <row r="504">
       <c r="A504" s="5"/>
-      <c r="B504" s="7"/>
+      <c r="B504" s="12"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -11164,7 +11344,7 @@
     </row>
     <row r="505">
       <c r="A505" s="5"/>
-      <c r="B505" s="7"/>
+      <c r="B505" s="12"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -11179,7 +11359,7 @@
     </row>
     <row r="506">
       <c r="A506" s="5"/>
-      <c r="B506" s="7"/>
+      <c r="B506" s="12"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -11194,7 +11374,7 @@
     </row>
     <row r="507">
       <c r="A507" s="5"/>
-      <c r="B507" s="7"/>
+      <c r="B507" s="12"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -11209,7 +11389,7 @@
     </row>
     <row r="508">
       <c r="A508" s="5"/>
-      <c r="B508" s="7"/>
+      <c r="B508" s="12"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -11224,7 +11404,7 @@
     </row>
     <row r="509">
       <c r="A509" s="5"/>
-      <c r="B509" s="7"/>
+      <c r="B509" s="12"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -11239,7 +11419,7 @@
     </row>
     <row r="510">
       <c r="A510" s="5"/>
-      <c r="B510" s="7"/>
+      <c r="B510" s="12"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -11254,7 +11434,7 @@
     </row>
     <row r="511">
       <c r="A511" s="5"/>
-      <c r="B511" s="7"/>
+      <c r="B511" s="12"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -11269,7 +11449,7 @@
     </row>
     <row r="512">
       <c r="A512" s="5"/>
-      <c r="B512" s="7"/>
+      <c r="B512" s="12"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -11284,7 +11464,7 @@
     </row>
     <row r="513">
       <c r="A513" s="5"/>
-      <c r="B513" s="7"/>
+      <c r="B513" s="12"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -11299,7 +11479,7 @@
     </row>
     <row r="514">
       <c r="A514" s="5"/>
-      <c r="B514" s="7"/>
+      <c r="B514" s="12"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -11314,7 +11494,7 @@
     </row>
     <row r="515">
       <c r="A515" s="5"/>
-      <c r="B515" s="7"/>
+      <c r="B515" s="12"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -11329,7 +11509,7 @@
     </row>
     <row r="516">
       <c r="A516" s="5"/>
-      <c r="B516" s="7"/>
+      <c r="B516" s="12"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -11344,7 +11524,7 @@
     </row>
     <row r="517">
       <c r="A517" s="5"/>
-      <c r="B517" s="7"/>
+      <c r="B517" s="12"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -11359,7 +11539,7 @@
     </row>
     <row r="518">
       <c r="A518" s="5"/>
-      <c r="B518" s="7"/>
+      <c r="B518" s="12"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -11374,7 +11554,7 @@
     </row>
     <row r="519">
       <c r="A519" s="5"/>
-      <c r="B519" s="7"/>
+      <c r="B519" s="12"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -11389,7 +11569,7 @@
     </row>
     <row r="520">
       <c r="A520" s="5"/>
-      <c r="B520" s="7"/>
+      <c r="B520" s="12"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -11404,7 +11584,7 @@
     </row>
     <row r="521">
       <c r="A521" s="5"/>
-      <c r="B521" s="7"/>
+      <c r="B521" s="12"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -11419,7 +11599,7 @@
     </row>
     <row r="522">
       <c r="A522" s="5"/>
-      <c r="B522" s="7"/>
+      <c r="B522" s="12"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -11434,7 +11614,7 @@
     </row>
     <row r="523">
       <c r="A523" s="5"/>
-      <c r="B523" s="7"/>
+      <c r="B523" s="12"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -11449,7 +11629,7 @@
     </row>
     <row r="524">
       <c r="A524" s="5"/>
-      <c r="B524" s="7"/>
+      <c r="B524" s="12"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -11464,7 +11644,7 @@
     </row>
     <row r="525">
       <c r="A525" s="5"/>
-      <c r="B525" s="7"/>
+      <c r="B525" s="12"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -11479,7 +11659,7 @@
     </row>
     <row r="526">
       <c r="A526" s="5"/>
-      <c r="B526" s="7"/>
+      <c r="B526" s="12"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -11494,7 +11674,7 @@
     </row>
     <row r="527">
       <c r="A527" s="5"/>
-      <c r="B527" s="7"/>
+      <c r="B527" s="12"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -11509,7 +11689,7 @@
     </row>
     <row r="528">
       <c r="A528" s="5"/>
-      <c r="B528" s="7"/>
+      <c r="B528" s="12"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -11524,7 +11704,7 @@
     </row>
     <row r="529">
       <c r="A529" s="5"/>
-      <c r="B529" s="7"/>
+      <c r="B529" s="12"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -11539,7 +11719,7 @@
     </row>
     <row r="530">
       <c r="A530" s="5"/>
-      <c r="B530" s="7"/>
+      <c r="B530" s="12"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -11554,7 +11734,7 @@
     </row>
     <row r="531">
       <c r="A531" s="5"/>
-      <c r="B531" s="7"/>
+      <c r="B531" s="12"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -11569,7 +11749,7 @@
     </row>
     <row r="532">
       <c r="A532" s="5"/>
-      <c r="B532" s="7"/>
+      <c r="B532" s="12"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -11584,7 +11764,7 @@
     </row>
     <row r="533">
       <c r="A533" s="5"/>
-      <c r="B533" s="7"/>
+      <c r="B533" s="12"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -11599,7 +11779,7 @@
     </row>
     <row r="534">
       <c r="A534" s="5"/>
-      <c r="B534" s="7"/>
+      <c r="B534" s="12"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -11614,7 +11794,7 @@
     </row>
     <row r="535">
       <c r="A535" s="5"/>
-      <c r="B535" s="7"/>
+      <c r="B535" s="12"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -11629,7 +11809,7 @@
     </row>
     <row r="536">
       <c r="A536" s="5"/>
-      <c r="B536" s="7"/>
+      <c r="B536" s="12"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -11644,7 +11824,7 @@
     </row>
     <row r="537">
       <c r="A537" s="5"/>
-      <c r="B537" s="7"/>
+      <c r="B537" s="12"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -11659,7 +11839,7 @@
     </row>
     <row r="538">
       <c r="A538" s="5"/>
-      <c r="B538" s="7"/>
+      <c r="B538" s="12"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -11674,7 +11854,7 @@
     </row>
     <row r="539">
       <c r="A539" s="5"/>
-      <c r="B539" s="7"/>
+      <c r="B539" s="12"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -11689,7 +11869,7 @@
     </row>
     <row r="540">
       <c r="A540" s="5"/>
-      <c r="B540" s="7"/>
+      <c r="B540" s="12"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -11704,7 +11884,7 @@
     </row>
     <row r="541">
       <c r="A541" s="5"/>
-      <c r="B541" s="7"/>
+      <c r="B541" s="12"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -11719,7 +11899,7 @@
     </row>
     <row r="542">
       <c r="A542" s="5"/>
-      <c r="B542" s="7"/>
+      <c r="B542" s="12"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -11734,7 +11914,7 @@
     </row>
     <row r="543">
       <c r="A543" s="5"/>
-      <c r="B543" s="7"/>
+      <c r="B543" s="12"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -11749,7 +11929,7 @@
     </row>
     <row r="544">
       <c r="A544" s="5"/>
-      <c r="B544" s="7"/>
+      <c r="B544" s="12"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -11764,7 +11944,7 @@
     </row>
     <row r="545">
       <c r="A545" s="5"/>
-      <c r="B545" s="7"/>
+      <c r="B545" s="12"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -11779,7 +11959,7 @@
     </row>
     <row r="546">
       <c r="A546" s="5"/>
-      <c r="B546" s="7"/>
+      <c r="B546" s="12"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -11794,7 +11974,7 @@
     </row>
     <row r="547">
       <c r="A547" s="5"/>
-      <c r="B547" s="7"/>
+      <c r="B547" s="12"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -11809,7 +11989,7 @@
     </row>
     <row r="548">
       <c r="A548" s="5"/>
-      <c r="B548" s="7"/>
+      <c r="B548" s="12"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -11824,7 +12004,7 @@
     </row>
     <row r="549">
       <c r="A549" s="5"/>
-      <c r="B549" s="7"/>
+      <c r="B549" s="12"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -11839,7 +12019,7 @@
     </row>
     <row r="550">
       <c r="A550" s="5"/>
-      <c r="B550" s="7"/>
+      <c r="B550" s="12"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -11854,7 +12034,7 @@
     </row>
     <row r="551">
       <c r="A551" s="5"/>
-      <c r="B551" s="7"/>
+      <c r="B551" s="12"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -11869,7 +12049,7 @@
     </row>
     <row r="552">
       <c r="A552" s="5"/>
-      <c r="B552" s="7"/>
+      <c r="B552" s="12"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -11884,7 +12064,7 @@
     </row>
     <row r="553">
       <c r="A553" s="5"/>
-      <c r="B553" s="7"/>
+      <c r="B553" s="12"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -11899,7 +12079,7 @@
     </row>
     <row r="554">
       <c r="A554" s="5"/>
-      <c r="B554" s="7"/>
+      <c r="B554" s="12"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -11914,7 +12094,7 @@
     </row>
     <row r="555">
       <c r="A555" s="5"/>
-      <c r="B555" s="7"/>
+      <c r="B555" s="12"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -11929,7 +12109,7 @@
     </row>
     <row r="556">
       <c r="A556" s="5"/>
-      <c r="B556" s="7"/>
+      <c r="B556" s="12"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -11944,7 +12124,7 @@
     </row>
     <row r="557">
       <c r="A557" s="5"/>
-      <c r="B557" s="7"/>
+      <c r="B557" s="12"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -11959,7 +12139,7 @@
     </row>
     <row r="558">
       <c r="A558" s="5"/>
-      <c r="B558" s="7"/>
+      <c r="B558" s="12"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -11974,7 +12154,7 @@
     </row>
     <row r="559">
       <c r="A559" s="5"/>
-      <c r="B559" s="7"/>
+      <c r="B559" s="12"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -11989,7 +12169,7 @@
     </row>
     <row r="560">
       <c r="A560" s="5"/>
-      <c r="B560" s="7"/>
+      <c r="B560" s="12"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -12004,7 +12184,7 @@
     </row>
     <row r="561">
       <c r="A561" s="5"/>
-      <c r="B561" s="7"/>
+      <c r="B561" s="12"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -12019,7 +12199,7 @@
     </row>
     <row r="562">
       <c r="A562" s="5"/>
-      <c r="B562" s="7"/>
+      <c r="B562" s="12"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -12034,7 +12214,7 @@
     </row>
     <row r="563">
       <c r="A563" s="5"/>
-      <c r="B563" s="7"/>
+      <c r="B563" s="12"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -12049,7 +12229,7 @@
     </row>
     <row r="564">
       <c r="A564" s="5"/>
-      <c r="B564" s="7"/>
+      <c r="B564" s="12"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -12064,7 +12244,7 @@
     </row>
     <row r="565">
       <c r="A565" s="5"/>
-      <c r="B565" s="7"/>
+      <c r="B565" s="12"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -12079,7 +12259,7 @@
     </row>
     <row r="566">
       <c r="A566" s="5"/>
-      <c r="B566" s="7"/>
+      <c r="B566" s="12"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -12094,7 +12274,7 @@
     </row>
     <row r="567">
       <c r="A567" s="5"/>
-      <c r="B567" s="7"/>
+      <c r="B567" s="12"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -12109,7 +12289,7 @@
     </row>
     <row r="568">
       <c r="A568" s="5"/>
-      <c r="B568" s="7"/>
+      <c r="B568" s="12"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -12124,7 +12304,7 @@
     </row>
     <row r="569">
       <c r="A569" s="5"/>
-      <c r="B569" s="7"/>
+      <c r="B569" s="12"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -12139,7 +12319,7 @@
     </row>
     <row r="570">
       <c r="A570" s="5"/>
-      <c r="B570" s="7"/>
+      <c r="B570" s="12"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -12154,7 +12334,7 @@
     </row>
     <row r="571">
       <c r="A571" s="5"/>
-      <c r="B571" s="7"/>
+      <c r="B571" s="12"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -12169,7 +12349,7 @@
     </row>
     <row r="572">
       <c r="A572" s="5"/>
-      <c r="B572" s="7"/>
+      <c r="B572" s="12"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -12184,7 +12364,7 @@
     </row>
     <row r="573">
       <c r="A573" s="5"/>
-      <c r="B573" s="7"/>
+      <c r="B573" s="12"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -12199,7 +12379,7 @@
     </row>
     <row r="574">
       <c r="A574" s="5"/>
-      <c r="B574" s="7"/>
+      <c r="B574" s="12"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -12214,7 +12394,7 @@
     </row>
     <row r="575">
       <c r="A575" s="5"/>
-      <c r="B575" s="7"/>
+      <c r="B575" s="12"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -12229,7 +12409,7 @@
     </row>
     <row r="576">
       <c r="A576" s="5"/>
-      <c r="B576" s="7"/>
+      <c r="B576" s="12"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -12244,7 +12424,7 @@
     </row>
     <row r="577">
       <c r="A577" s="5"/>
-      <c r="B577" s="7"/>
+      <c r="B577" s="12"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -12257,112 +12437,22 @@
       <c r="L577" s="5"/>
       <c r="M577" s="5"/>
     </row>
-    <row r="578">
-      <c r="A578" s="5"/>
-      <c r="B578" s="7"/>
-      <c r="C578" s="5"/>
-      <c r="D578" s="5"/>
-      <c r="E578" s="5"/>
-      <c r="F578" s="5"/>
-      <c r="G578" s="5"/>
-      <c r="H578" s="5"/>
-      <c r="I578" s="5"/>
-      <c r="J578" s="5"/>
-      <c r="K578" s="5"/>
-      <c r="L578" s="5"/>
-      <c r="M578" s="5"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="5"/>
-      <c r="B579" s="7"/>
-      <c r="C579" s="5"/>
-      <c r="D579" s="5"/>
-      <c r="E579" s="5"/>
-      <c r="F579" s="5"/>
-      <c r="G579" s="5"/>
-      <c r="H579" s="5"/>
-      <c r="I579" s="5"/>
-      <c r="J579" s="5"/>
-      <c r="K579" s="5"/>
-      <c r="L579" s="5"/>
-      <c r="M579" s="5"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="5"/>
-      <c r="B580" s="7"/>
-      <c r="C580" s="5"/>
-      <c r="D580" s="5"/>
-      <c r="E580" s="5"/>
-      <c r="F580" s="5"/>
-      <c r="G580" s="5"/>
-      <c r="H580" s="5"/>
-      <c r="I580" s="5"/>
-      <c r="J580" s="5"/>
-      <c r="K580" s="5"/>
-      <c r="L580" s="5"/>
-      <c r="M580" s="5"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="5"/>
-      <c r="B581" s="7"/>
-      <c r="C581" s="5"/>
-      <c r="D581" s="5"/>
-      <c r="E581" s="5"/>
-      <c r="F581" s="5"/>
-      <c r="G581" s="5"/>
-      <c r="H581" s="5"/>
-      <c r="I581" s="5"/>
-      <c r="J581" s="5"/>
-      <c r="K581" s="5"/>
-      <c r="L581" s="5"/>
-      <c r="M581" s="5"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="5"/>
-      <c r="B582" s="7"/>
-      <c r="C582" s="5"/>
-      <c r="D582" s="5"/>
-      <c r="E582" s="5"/>
-      <c r="F582" s="5"/>
-      <c r="G582" s="5"/>
-      <c r="H582" s="5"/>
-      <c r="I582" s="5"/>
-      <c r="J582" s="5"/>
-      <c r="K582" s="5"/>
-      <c r="L582" s="5"/>
-      <c r="M582" s="5"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="5"/>
-      <c r="B583" s="7"/>
-      <c r="C583" s="5"/>
-      <c r="D583" s="5"/>
-      <c r="E583" s="5"/>
-      <c r="F583" s="5"/>
-      <c r="G583" s="5"/>
-      <c r="H583" s="5"/>
-      <c r="I583" s="5"/>
-      <c r="J583" s="5"/>
-      <c r="K583" s="5"/>
-      <c r="L583" s="5"/>
-      <c r="M583" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$M$115"/>
+  <autoFilter ref="$A$1:$M$111"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B48 B50:B583">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B577">
       <formula1>'api choices'!$B$5:M$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F48 F50:F583">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F577">
       <formula1>'api choices'!$B$3:M$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A48 A50:A583">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A577">
       <formula1>'api choices'!$B$2:M$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E48 E50:E583">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E577">
       <formula1>'api choices'!$B$6:M$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L583">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L577">
       <formula1>'api choices'!$B$4:M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -12389,119 +12479,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>172</v>
+      <c r="C2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>31</v>
+      <c r="A3" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>37</v>
+      <c r="A4" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>199</v>
+      <c r="A5" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>173</v>
+      <c r="E5" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>364</v>
+      <c r="K5" s="11" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>255</v>
+      <c r="A6" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="410">
   <si>
     <t>Mode</t>
   </si>
@@ -1000,10 +1000,13 @@
     <t>sys_read</t>
   </si>
   <si>
+    <t>Executes Server Rule logic when new records are read from the database.</t>
+  </si>
+  <si>
     <t>sys_insert</t>
   </si>
   <si>
-    <t>Executes Business Rule logic when new records are inserted into the database.</t>
+    <t>Executes Server Rule logic when new records are inserted into the database.</t>
   </si>
   <si>
     <t>Useful for executing actions when a new record is added.</t>
@@ -1012,7 +1015,7 @@
     <t>sys_update</t>
   </si>
   <si>
-    <t>Executes Business Rule logic when records are updated.</t>
+    <t>Executes Server Rule logic when records are updated.</t>
   </si>
   <si>
     <t>Trigger updates, such as recalculating values, when an existing record is modified.</t>
@@ -1021,7 +1024,7 @@
     <t>sys_delete</t>
   </si>
   <si>
-    <t>Executes Business Rule logic when records are deleted.</t>
+    <t>Executes Server Rule logic when records are deleted.</t>
   </si>
   <si>
     <t>Can be used for cleanup tasks when a record is deleted.</t>
@@ -1158,19 +1161,19 @@
     <t>sys_server_rule</t>
   </si>
   <si>
-    <t>Executes Business Rule logic when a record is queried.</t>
+    <t>Executes Server Rule logic when a record is queried.</t>
   </si>
   <si>
     <t>Use for optimizing or logging database queries.</t>
   </si>
   <si>
-    <t>Specifies the execution order for Business Rules.</t>
+    <t>Specifies the execution order for Server Rules.</t>
   </si>
   <si>
     <t>Rules run in ascending order; use values like 100, 200, 300 for readability.</t>
   </si>
   <si>
-    <t>Specifies when the Business Rule logic executes in relation to database access.</t>
+    <t>Specifies when the Server Rule logic executes in relation to database access.</t>
   </si>
   <si>
     <t>Determines whether the rule fires before or after the action.</t>
@@ -1197,7 +1200,7 @@
     <t>Dictates if the button is a button or a button divider</t>
   </si>
   <si>
-    <t>A condition that must evaluate to true for the Business Rule logic to run.</t>
+    <t>A condition that must evaluate to true for the Server Rule logic to run.</t>
   </si>
   <si>
     <t>Add conditions to refine when the rule is executed (e.g., “State is 14”).</t>
@@ -4205,7 +4208,9 @@
       <c r="H77" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="I77" s="4"/>
+      <c r="I77" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="J77" s="8"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -4226,16 +4231,16 @@
       <c r="F78" s="5"/>
       <c r="G78" s="2"/>
       <c r="H78" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I78" s="4" t="s">
         <v>267</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79">
@@ -4253,16 +4258,16 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I79" s="4" t="s">
         <v>270</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80">
@@ -4280,16 +4285,16 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I80" s="4" t="s">
         <v>273</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81">
@@ -4307,10 +4312,10 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="5"/>
@@ -4332,10 +4337,10 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="5"/>
@@ -4357,10 +4362,10 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="5"/>
@@ -4382,10 +4387,10 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="5"/>
@@ -4400,7 +4405,7 @@
         <v>200</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -4408,7 +4413,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
       <c r="I85" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -4423,7 +4428,7 @@
         <v>200</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -4431,7 +4436,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
       <c r="I86" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -4446,7 +4451,7 @@
         <v>200</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4454,7 +4459,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
       <c r="I87" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -4469,7 +4474,7 @@
         <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4477,7 +4482,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
       <c r="I88" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -4519,7 +4524,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -4541,10 +4546,10 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -4566,10 +4571,10 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -4591,10 +4596,10 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -4616,10 +4621,10 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -4641,10 +4646,10 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -4666,10 +4671,10 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -4691,10 +4696,10 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -4716,10 +4721,10 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -4741,10 +4746,10 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -4766,10 +4771,10 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -4791,10 +4796,10 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -4816,10 +4821,10 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -4835,7 +4840,7 @@
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -4843,14 +4848,14 @@
       <c r="H103" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I103" s="4" t="s">
-        <v>316</v>
+      <c r="I103" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
@@ -4862,22 +4867,22 @@
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105">
@@ -4889,22 +4894,22 @@
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>320</v>
+        <v>276</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106">
@@ -4916,16 +4921,16 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -4941,16 +4946,16 @@
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -4966,16 +4971,16 @@
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -4991,16 +4996,16 @@
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -5016,22 +5021,22 @@
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>329</v>
+        <v>278</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" ht="18.75" customHeight="1">
@@ -5042,7 +5047,7 @@
         <v>263</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -5050,7 +5055,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -5065,7 +5070,7 @@
         <v>263</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -5073,7 +5078,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -5088,7 +5093,7 @@
         <v>263</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="5"/>
@@ -5096,13 +5101,13 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114">
@@ -5113,7 +5118,7 @@
         <v>263</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="5"/>
@@ -5121,13 +5126,13 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" ht="19.5" customHeight="1">
@@ -5138,7 +5143,7 @@
         <v>263</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
@@ -5146,13 +5151,13 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116">
@@ -5160,20 +5165,20 @@
         <v>173</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -5185,20 +5190,20 @@
         <v>173</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -5210,20 +5215,20 @@
         <v>173</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -5235,17 +5240,17 @@
         <v>173</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="5"/>
@@ -5258,17 +5263,17 @@
         <v>173</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="5"/>
@@ -5279,17 +5284,17 @@
     <row r="121">
       <c r="A121" s="2"/>
       <c r="B121" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="5"/>
@@ -5300,17 +5305,17 @@
     <row r="122">
       <c r="A122" s="2"/>
       <c r="B122" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="5"/>
@@ -5323,20 +5328,20 @@
         <v>173</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -5348,20 +5353,20 @@
         <v>173</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -5373,20 +5378,20 @@
         <v>173</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -5398,20 +5403,20 @@
         <v>173</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -5423,20 +5428,20 @@
         <v>173</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -5448,20 +5453,20 @@
         <v>173</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -5473,20 +5478,20 @@
         <v>173</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -5498,20 +5503,20 @@
         <v>173</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -5538,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
@@ -5549,7 +5554,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="2"/>
       <c r="I132" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -5561,20 +5566,20 @@
         <v>13</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -5586,20 +5591,20 @@
         <v>13</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -5611,20 +5616,20 @@
         <v>13</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -5651,20 +5656,20 @@
         <v>13</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -5676,20 +5681,20 @@
         <v>13</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -5701,20 +5706,20 @@
         <v>13</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -5726,20 +5731,20 @@
         <v>13</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -5751,20 +5756,20 @@
         <v>13</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -5776,20 +5781,20 @@
         <v>13</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -5801,20 +5806,20 @@
         <v>13</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -5826,11 +5831,11 @@
         <v>173</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -5847,20 +5852,20 @@
         <v>173</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -5872,20 +5877,20 @@
         <v>173</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -5897,20 +5902,20 @@
         <v>173</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -5922,20 +5927,20 @@
         <v>173</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -5947,20 +5952,20 @@
         <v>173</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -5972,20 +5977,20 @@
         <v>173</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -5997,20 +6002,20 @@
         <v>173</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -6022,20 +6027,20 @@
         <v>173</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -6047,20 +6052,20 @@
         <v>173</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -6072,20 +6077,20 @@
         <v>173</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -6135,14 +6140,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>13</v>
@@ -6156,7 +6161,7 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>67</v>
@@ -6179,7 +6184,7 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
@@ -6190,7 +6195,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>200</v>
@@ -6208,24 +6213,24 @@
         <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>204</v>
@@ -6243,7 +6248,7 @@
         <v>252</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>166</v>
